--- a/results/I3_N5_M3_T30_C200_DepLowerLeft_s3_mean_res.xlsx
+++ b/results/I3_N5_M3_T30_C200_DepLowerLeft_s3_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.78859056403513</v>
+        <v>37.94598172789252</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1419999599456787</v>
+        <v>0.09500002861022949</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42.78859056403513</v>
+        <v>37.94598172789252</v>
       </c>
     </row>
     <row r="7">
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24.56111301453241</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>22.69023945846941</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.33301651610669</v>
+        <v>22.35722294236247</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>186.4780000001541</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>88.01900000000389</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>41.23199999998285</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>73.97800000004636</v>
+        <v>173.8</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>122.0980000001</v>
+        <v>113.2</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>186.4780000001647</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>88.01900000002207</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>41.23199999999993</v>
+        <v>173.8</v>
       </c>
     </row>
   </sheetData>
